--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D567370A-19D0-489E-8C0D-1C8179031E66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A244F31-CB9B-486B-9632-21F8B1B06059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
   <si>
     <t>ID</t>
   </si>
@@ -63,17 +63,34 @@
     <t>lzambonini</t>
   </si>
   <si>
-    <t>0420172008274</t>
+    <t xml:space="preserve">0420172008382 </t>
+  </si>
+  <si>
+    <t>0420194406616</t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -117,15 +134,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -438,10 +458,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA01E7D-480B-457E-89FE-07C13B233011}">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,7 +516,30 @@
       </c>
       <c r="H2" s="1"/>
     </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{78E6587F-C5E1-4DAD-A0B3-34F2DD0FFA5D}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A244F31-CB9B-486B-9632-21F8B1B06059}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BFAC3-63A6-447E-A80B-D7C2DC1E0DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
   <si>
     <t>ID</t>
   </si>
@@ -66,13 +66,16 @@
     <t xml:space="preserve">0420172008382 </t>
   </si>
   <si>
-    <t>0420194406616</t>
-  </si>
-  <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
     <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>0420194406617</t>
+  </si>
+  <si>
+    <t>Mediación</t>
   </si>
 </sst>
 </file>
@@ -461,7 +464,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -518,10 +521,10 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -530,10 +533,10 @@
         <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF5BFAC3-63A6-447E-A80B-D7C2DC1E0DC3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E730952-D57D-4D96-84CB-094FE7A00083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -60,22 +60,28 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
+    <t xml:space="preserve">0420172008382 </t>
+  </si>
+  <si>
+    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
+  </si>
+  <si>
+    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
+  </si>
+  <si>
+    <t>Mediación</t>
+  </si>
+  <si>
+    <t>0420194406696</t>
+  </si>
+  <si>
+    <t>gw</t>
+  </si>
+  <si>
+    <t>mbalducci</t>
+  </si>
+  <si>
     <t>lzambonini</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008382 </t>
-  </si>
-  <si>
-    <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
-  </si>
-  <si>
-    <t>ssurgwsoadev4-oci.opc.oracleoutsourcing.com</t>
-  </si>
-  <si>
-    <t>0420194406617</t>
-  </si>
-  <si>
-    <t>Mediación</t>
   </si>
 </sst>
 </file>
@@ -464,7 +470,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -506,13 +512,13 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>8</v>
@@ -521,22 +527,22 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E3" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E730952-D57D-4D96-84CB-094FE7A00083}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B36D5-6C51-46DC-B1C8-5D4AA6E231D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
   <si>
     <t>ID</t>
   </si>
@@ -75,13 +75,13 @@
     <t>0420194406696</t>
   </si>
   <si>
-    <t>gw</t>
-  </si>
-  <si>
     <t>mbalducci</t>
   </si>
   <si>
     <t>lzambonini</t>
+  </si>
+  <si>
+    <t>0420194406718</t>
   </si>
 </sst>
 </file>
@@ -467,10 +467,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AA01E7D-480B-457E-89FE-07C13B233011}">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -512,7 +512,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -533,21 +533,42 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{78E6587F-C5E1-4DAD-A0B3-34F2DD0FFA5D}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{D8C6D528-5523-4151-B92F-9BC95FF820D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B36D5-6C51-46DC-B1C8-5D4AA6E231D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3086C-F840-440C-A79E-C8F212C4A1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Mediación</t>
   </si>
   <si>
-    <t>0420194406696</t>
-  </si>
-  <si>
     <t>mbalducci</t>
   </si>
   <si>
@@ -82,6 +79,9 @@
   </si>
   <si>
     <t>0420194406718</t>
+  </si>
+  <si>
+    <t>0420172008486</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -502,9 +502,6 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -512,25 +509,27 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="H2" s="1"/>
+      <c r="F2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1</v>
+      </c>
       <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
@@ -538,12 +537,13 @@
       <c r="E3" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
+      <c r="F3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H3" s="1"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -553,13 +553,13 @@
         <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>14</v>
@@ -567,8 +567,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C3" r:id="rId1" xr:uid="{78E6587F-C5E1-4DAD-A0B3-34F2DD0FFA5D}"/>
-    <hyperlink ref="C4" r:id="rId2" xr:uid="{D8C6D528-5523-4151-B92F-9BC95FF820D8}"/>
+    <hyperlink ref="C4" r:id="rId1" xr:uid="{D8C6D528-5523-4151-B92F-9BC95FF820D8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5B3086C-F840-440C-A79E-C8F212C4A1EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE4A64-34DE-4BAB-B417-7B51D8257A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -60,9 +60,6 @@
     <t>https://preproducciongestion.segurossura.com.ar/cc/ClaimCenter.do</t>
   </si>
   <si>
-    <t xml:space="preserve">0420172008382 </t>
-  </si>
-  <si>
     <t>https://ssurgwsoadev4-oci.opc.oracleoutsourcing.com/cc/ClaimCenter.do</t>
   </si>
   <si>
@@ -78,10 +75,13 @@
     <t>lzambonini</t>
   </si>
   <si>
-    <t>0420194406718</t>
-  </si>
-  <si>
-    <t>0420172008486</t>
+    <t>0420194406824</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420172008616 </t>
+  </si>
+  <si>
+    <t>0420172008636</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,7 +509,7 @@
         <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
         <v>5</v>
@@ -518,7 +518,7 @@
         <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -532,13 +532,13 @@
         <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -547,22 +547,22 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9EE4A64-34DE-4BAB-B417-7B51D8257A5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA810E9-1458-4A78-B583-632075EECEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -75,13 +75,13 @@
     <t>lzambonini</t>
   </si>
   <si>
-    <t>0420194406824</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0420172008616 </t>
-  </si>
-  <si>
-    <t>0420172008636</t>
+    <t xml:space="preserve">0420172010219 </t>
+  </si>
+  <si>
+    <t>0420172010219</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0420194406901 </t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -538,7 +538,7 @@
         <v>5</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>8</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>

--- a/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
+++ b/SuraClaims/DataSource - Generación Mediaciones y Juicios.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Irina Storozuk\Documents\Ranorex\RanorexStudio Projects\SuraClaims\SuraClaims\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA810E9-1458-4A78-B583-632075EECEB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06F066C7-1C31-4B97-AD74-7F1EFAF1F646}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{AF74D057-6E01-4208-A115-80971374A007}"/>
   </bookViews>
@@ -78,10 +78,10 @@
     <t xml:space="preserve">0420172010219 </t>
   </si>
   <si>
-    <t>0420172010219</t>
-  </si>
-  <si>
     <t xml:space="preserve">0420194406901 </t>
+  </si>
+  <si>
+    <t>0420172010448</t>
   </si>
 </sst>
 </file>
@@ -470,7 +470,7 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -515,7 +515,7 @@
         <v>5</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
         <v>13</v>
@@ -559,7 +559,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G4" t="s">
         <v>13</v>
